--- a/data/DataDictionary_zooplankton_traits-2023-02-05.xlsx
+++ b/data/DataDictionary_zooplankton_traits-2023-02-05.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\R Workspace\Linking_species_distributions\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\R Workspace\Species_distributions_and_traits\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A3D975-15D5-4734-8DED-23BA1D2F199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F9EE46-EEB3-4AFC-B5D2-211C2E11CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Column name</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>Original notes or comments recorded in the reference for the trait value.</t>
+  </si>
+  <si>
+    <t>sizeType</t>
+  </si>
+  <si>
+    <t>Description regarding the size measurement.</t>
   </si>
 </sst>
 </file>
@@ -794,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -981,8 +987,12 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
@@ -1254,12 +1264,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
